--- a/tests/output/3_b_2_ING Orange Everyday Account #6291_Interim_output.xlsx
+++ b/tests/output/3_b_2_ING Orange Everyday Account #6291_Interim_output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
 07 Feb 2025 KEERTHI KIRAN YAGA y $1,005.00 $1,314.39
 ING is a business name of ING Bank (Australia) Limited
 ABN 24 000 893 292 | AFSL 229823, Australian Credit Licence 229823
-GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au\n\n--- End of Page 1 ---\n\n07 Feb 2025 Internal Transfer -$1,001.00 $313.39
+GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au07 Feb 2025 Internal Transfer -$1,001.00 $313.39
 12 Feb 2025 KEERTHI KIRAN YAGA y $4,000.00 $4,313.39
 12 Feb 2025 Internal Transfer -$4,000.00 $313.39
 22 Feb 2025 AMZNPRIMEAU MEMBERSHIP -$9.99 $303.40
@@ -484,7 +484,7 @@
 us a secure message via online banking as soon as possible.
 ING is a business name of ING Bank (Australia) Limited
 ABN 24 000 893 292 | AFSL 229823, Australian Credit Licence 229823
-GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au\n\n--- End of Page 2 ---\n\n</t>
+GPO Box 4094 Sydney NSW Australia 2001 | www.ing.com.au</t>
         </is>
       </c>
     </row>
